--- a/Data/(JY) SMU Monthly Sales.xlsx
+++ b/Data/(JY) SMU Monthly Sales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tan Jie Ying\Desktop\Y2S2\SMA\Group Project\Monthly Sales\SMU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matthew.tan.2018\Documents\GitHub\SMA-Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D26B9B-0554-4663-9724-7B3F3736B79F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4D6534-A6DB-4DBA-91D9-926B91A463C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="652" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis" sheetId="7" r:id="rId1"/>
@@ -27,9 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -923,9 +921,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -1644,7 +1642,7 @@
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1694,25 +1692,25 @@
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="17" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="17" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="17" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="17" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="16" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="16" fillId="35" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="36" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="16" fillId="35" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="16" fillId="36" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="16" fillId="36" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="36" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="16" fillId="36" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="16" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1720,13 +1718,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1742,30 +1740,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="17" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1775,53 +1773,53 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="22" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="22" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="15" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="15" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="16" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="16" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="13" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="13" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="18" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="18" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="24" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="24" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="25" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="25" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="26" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="26" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4772,8 +4770,8 @@
   </sheetPr>
   <dimension ref="B2:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5573,8 +5571,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O104" sqref="O104"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9934,7 +9932,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N124"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O113" sqref="O113"/>
     </sheetView>
   </sheetViews>
